--- a/pic.xlsx
+++ b/pic.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thong\Project\FaceAttend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA639AA-4C01-4D3D-88C6-3FF45EE0AE33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="3315" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Nguyễn Hoàng Minh Anh</t>
   </si>
@@ -119,19 +113,13 @@
   </si>
   <si>
     <t>Nguyễn Minh Triết</t>
-  </si>
-  <si>
-    <t>Số ảnh đang có</t>
-  </si>
-  <si>
-    <t>Tổng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,14 +156,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -222,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,27 +234,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,24 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,200 +443,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -700,31 +634,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -732,61 +666,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <f>SUM(B2:B34)</f>
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
